--- a/Code/Results/Cases/Case_5_233/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_233/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9991916969358107</v>
+        <v>1.053326784846613</v>
       </c>
       <c r="D2">
-        <v>1.021132015036407</v>
+        <v>1.05735288753316</v>
       </c>
       <c r="E2">
-        <v>1.003282633302334</v>
+        <v>1.049784570808107</v>
       </c>
       <c r="F2">
-        <v>1.020803809268953</v>
+        <v>1.065580750290416</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047241201549589</v>
+        <v>1.042826644038349</v>
       </c>
       <c r="J2">
-        <v>1.021396611117006</v>
+        <v>1.05834471400405</v>
       </c>
       <c r="K2">
-        <v>1.032304592920732</v>
+        <v>1.060088090727344</v>
       </c>
       <c r="L2">
-        <v>1.014696424489247</v>
+        <v>1.052540665006014</v>
       </c>
       <c r="M2">
-        <v>1.031980726947127</v>
+        <v>1.068293606303547</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.009086897700328</v>
+        <v>1.055145191482077</v>
       </c>
       <c r="D3">
-        <v>1.029084814567774</v>
+        <v>1.058813802458066</v>
       </c>
       <c r="E3">
-        <v>1.011867968988423</v>
+        <v>1.051380687837004</v>
       </c>
       <c r="F3">
-        <v>1.029764362145005</v>
+        <v>1.067271853948691</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050786223714279</v>
+        <v>1.043339064684927</v>
       </c>
       <c r="J3">
-        <v>1.029332873071046</v>
+        <v>1.059809744085158</v>
       </c>
       <c r="K3">
-        <v>1.039358598063641</v>
+        <v>1.061361181682897</v>
       </c>
       <c r="L3">
-        <v>1.022351216004994</v>
+        <v>1.053947076196142</v>
       </c>
       <c r="M3">
-        <v>1.040030056262164</v>
+        <v>1.069797949821408</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.015239830461879</v>
+        <v>1.056318172525178</v>
       </c>
       <c r="D4">
-        <v>1.034033150965177</v>
+        <v>1.05975583367735</v>
       </c>
       <c r="E4">
-        <v>1.017207211266478</v>
+        <v>1.052409786857123</v>
       </c>
       <c r="F4">
-        <v>1.035344417047547</v>
+        <v>1.068363033590878</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052973830861433</v>
+        <v>1.043667506075709</v>
       </c>
       <c r="J4">
-        <v>1.034261573434497</v>
+        <v>1.060753808169771</v>
       </c>
       <c r="K4">
-        <v>1.043737470137683</v>
+        <v>1.062181170397339</v>
       </c>
       <c r="L4">
-        <v>1.027102303185775</v>
+        <v>1.054852949132864</v>
       </c>
       <c r="M4">
-        <v>1.045034189391633</v>
+        <v>1.070767819387793</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.017771100463539</v>
+        <v>1.056810438709082</v>
       </c>
       <c r="D5">
-        <v>1.036069455824081</v>
+        <v>1.060151092597325</v>
       </c>
       <c r="E5">
-        <v>1.019403814648499</v>
+        <v>1.052841551764209</v>
       </c>
       <c r="F5">
-        <v>1.037641836684438</v>
+        <v>1.06882104461369</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053869694104732</v>
+        <v>1.043804839804519</v>
       </c>
       <c r="J5">
-        <v>1.036287641551733</v>
+        <v>1.061149772308975</v>
       </c>
       <c r="K5">
-        <v>1.045537014396347</v>
+        <v>1.06252500024025</v>
       </c>
       <c r="L5">
-        <v>1.029054685865517</v>
+        <v>1.055232795306993</v>
       </c>
       <c r="M5">
-        <v>1.047092472570119</v>
+        <v>1.071174719554557</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.018192980555796</v>
+        <v>1.056893042766477</v>
       </c>
       <c r="D6">
-        <v>1.036408871770725</v>
+        <v>1.06021741349697</v>
       </c>
       <c r="E6">
-        <v>1.019769918395175</v>
+        <v>1.052913996545844</v>
       </c>
       <c r="F6">
-        <v>1.038024844633298</v>
+        <v>1.068897904863723</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054018761437167</v>
+        <v>1.043827855344991</v>
       </c>
       <c r="J6">
-        <v>1.036625226686684</v>
+        <v>1.061216202897955</v>
       </c>
       <c r="K6">
-        <v>1.045836825146367</v>
+        <v>1.062582678769481</v>
       </c>
       <c r="L6">
-        <v>1.029379953911674</v>
+        <v>1.055296515960157</v>
       </c>
       <c r="M6">
-        <v>1.047435495195285</v>
+        <v>1.071242991462381</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.01527386574161</v>
+        <v>1.05632475354435</v>
       </c>
       <c r="D7">
-        <v>1.034060528828705</v>
+        <v>1.059761118156985</v>
       </c>
       <c r="E7">
-        <v>1.017236746465856</v>
+        <v>1.052415559510553</v>
       </c>
       <c r="F7">
-        <v>1.035375300949306</v>
+        <v>1.068369156367585</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052985892955644</v>
+        <v>1.043669344047017</v>
       </c>
       <c r="J7">
-        <v>1.034288822108573</v>
+        <v>1.060759102657733</v>
       </c>
       <c r="K7">
-        <v>1.043761674332914</v>
+        <v>1.062185768161252</v>
       </c>
       <c r="L7">
-        <v>1.027128563529158</v>
+        <v>1.05485802849697</v>
       </c>
       <c r="M7">
-        <v>1.0450618665969</v>
+        <v>1.070773259660677</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.002590399701373</v>
+        <v>1.053942090866931</v>
       </c>
       <c r="D8">
-        <v>1.023862767076471</v>
+        <v>1.057847297775572</v>
       </c>
       <c r="E8">
-        <v>1.006231194332702</v>
+        <v>1.05032476109504</v>
       </c>
       <c r="F8">
-        <v>1.023879619418952</v>
+        <v>1.066152913502681</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048462304674486</v>
+        <v>1.043000470553091</v>
       </c>
       <c r="J8">
-        <v>1.024123725894134</v>
+        <v>1.058840646259903</v>
       </c>
       <c r="K8">
-        <v>1.034728919635743</v>
+        <v>1.060519129628747</v>
       </c>
       <c r="L8">
-        <v>1.017327416536493</v>
+        <v>1.053016840751954</v>
       </c>
       <c r="M8">
-        <v>1.034745556813371</v>
+        <v>1.068802748432777</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9780957348384582</v>
+        <v>1.049714739621802</v>
       </c>
       <c r="D9">
-        <v>1.004204745222338</v>
+        <v>1.054449166956319</v>
       </c>
       <c r="E9">
-        <v>0.9849898411028387</v>
+        <v>1.0466114657905</v>
       </c>
       <c r="F9">
-        <v>1.001756773259884</v>
+        <v>1.062223324188587</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039592185052466</v>
+        <v>1.041797590977814</v>
       </c>
       <c r="J9">
-        <v>1.004446428426851</v>
+        <v>1.055429458626093</v>
       </c>
       <c r="K9">
-        <v>1.017229969751292</v>
+        <v>1.057552712841915</v>
       </c>
       <c r="L9">
-        <v>0.9983312344830181</v>
+        <v>1.049739811779812</v>
       </c>
       <c r="M9">
-        <v>1.014821412201512</v>
+        <v>1.065302665906675</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9599360393149085</v>
+        <v>1.04687595975614</v>
       </c>
       <c r="D10">
-        <v>0.9896719169687427</v>
+        <v>1.052165562565986</v>
       </c>
       <c r="E10">
-        <v>0.969261752577224</v>
+        <v>1.044115371162573</v>
       </c>
       <c r="F10">
-        <v>0.9854246548593864</v>
+        <v>1.059586261640353</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032931609160526</v>
+        <v>1.040978987272023</v>
       </c>
       <c r="J10">
-        <v>0.9898346059533228</v>
+        <v>1.053133775418172</v>
       </c>
       <c r="K10">
-        <v>1.004230186073679</v>
+        <v>1.055554380637495</v>
       </c>
       <c r="L10">
-        <v>0.984209096098251</v>
+        <v>1.047532222864535</v>
       </c>
       <c r="M10">
-        <v>1.000062154578073</v>
+        <v>1.062949653117611</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9515266549793316</v>
+        <v>1.045641597991866</v>
       </c>
       <c r="D11">
-        <v>0.9829564154016541</v>
+        <v>1.051172225885932</v>
       </c>
       <c r="E11">
-        <v>0.961986211210723</v>
+        <v>1.043029424309391</v>
       </c>
       <c r="F11">
-        <v>0.977882454447616</v>
+        <v>1.05844004650348</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029829266004562</v>
+        <v>1.040620478489498</v>
       </c>
       <c r="J11">
-        <v>0.9830648969973639</v>
+        <v>1.05213438857928</v>
       </c>
       <c r="K11">
-        <v>0.9982070689316772</v>
+        <v>1.054683979983303</v>
       </c>
       <c r="L11">
-        <v>0.9776624732764432</v>
+        <v>1.046570662750667</v>
       </c>
       <c r="M11">
-        <v>0.9932338866340287</v>
+        <v>1.061925907054349</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9483088983396336</v>
+        <v>1.045182304129151</v>
       </c>
       <c r="D12">
-        <v>0.9803894374810304</v>
+        <v>1.050802560020183</v>
       </c>
       <c r="E12">
-        <v>0.9592038143681922</v>
+        <v>1.042625265688194</v>
       </c>
       <c r="F12">
-        <v>0.9750001121769574</v>
+        <v>1.05801361807605</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028639715329571</v>
+        <v>1.040486696597367</v>
       </c>
       <c r="J12">
-        <v>0.9804743016949595</v>
+        <v>1.051762350543845</v>
       </c>
       <c r="K12">
-        <v>0.9959022422243903</v>
+        <v>1.054359890600326</v>
       </c>
       <c r="L12">
-        <v>0.9751566871646975</v>
+        <v>1.046212627364842</v>
       </c>
       <c r="M12">
-        <v>0.9906224721564667</v>
+        <v>1.061544891313652</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9490036010532181</v>
+        <v>1.045280860657812</v>
       </c>
       <c r="D13">
-        <v>0.9809435120462473</v>
+        <v>1.050881886394825</v>
       </c>
       <c r="E13">
-        <v>0.9598044503964599</v>
+        <v>1.042711995142481</v>
       </c>
       <c r="F13">
-        <v>0.9756222297412184</v>
+        <v>1.05810511919754</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028896642659943</v>
+        <v>1.040515421255382</v>
       </c>
       <c r="J13">
-        <v>0.9810336087741264</v>
+        <v>1.051842191434824</v>
       </c>
       <c r="K13">
-        <v>0.9963998471935384</v>
+        <v>1.054429444604671</v>
       </c>
       <c r="L13">
-        <v>0.9756977090648875</v>
+        <v>1.046289466806598</v>
       </c>
       <c r="M13">
-        <v>0.991186200200735</v>
+        <v>1.061626654758395</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9512626739295504</v>
+        <v>1.045603649009503</v>
       </c>
       <c r="D14">
-        <v>0.9827457672391445</v>
+        <v>1.051141683496602</v>
       </c>
       <c r="E14">
-        <v>0.9617579139718528</v>
+        <v>1.042996032657095</v>
       </c>
       <c r="F14">
-        <v>0.9776459148074282</v>
+        <v>1.058404811641829</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029731725174158</v>
+        <v>1.04060943264242</v>
       </c>
       <c r="J14">
-        <v>0.9828523708236636</v>
+        <v>1.052103652662798</v>
       </c>
       <c r="K14">
-        <v>0.9980179844876299</v>
+        <v>1.054657206737894</v>
       </c>
       <c r="L14">
-        <v>0.9774569158937209</v>
+        <v>1.0465410852743</v>
       </c>
       <c r="M14">
-        <v>0.9930196195889821</v>
+        <v>1.06189442759868</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9526416829469655</v>
+        <v>1.045802423270015</v>
       </c>
       <c r="D15">
-        <v>0.9838462804928595</v>
+        <v>1.051301660268453</v>
       </c>
       <c r="E15">
-        <v>0.9629505776759015</v>
+        <v>1.043170932305516</v>
       </c>
       <c r="F15">
-        <v>0.9788817212401533</v>
+        <v>1.058589372265891</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030241169495167</v>
+        <v>1.040667274336176</v>
       </c>
       <c r="J15">
-        <v>0.9839625768370756</v>
+        <v>1.052264638160422</v>
       </c>
       <c r="K15">
-        <v>0.999005737685386</v>
+        <v>1.054797434153516</v>
       </c>
       <c r="L15">
-        <v>0.9785306953524372</v>
+        <v>1.04669599997792</v>
       </c>
       <c r="M15">
-        <v>0.9941389847774281</v>
+        <v>1.062059311233693</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9604816620603945</v>
+        <v>1.046957769790819</v>
       </c>
       <c r="D16">
-        <v>0.9901079680322015</v>
+        <v>1.052231390338559</v>
       </c>
       <c r="E16">
-        <v>0.9697339950226579</v>
+        <v>1.044187332260473</v>
       </c>
       <c r="F16">
-        <v>0.9859144764863556</v>
+        <v>1.059662238854432</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033132546985644</v>
+        <v>1.041002694386311</v>
       </c>
       <c r="J16">
-        <v>0.9902737949154543</v>
+        <v>1.053199987301171</v>
       </c>
       <c r="K16">
-        <v>1.004620942430457</v>
+        <v>1.055612037233868</v>
       </c>
       <c r="L16">
-        <v>0.984633735260397</v>
+        <v>1.047595917597793</v>
       </c>
       <c r="M16">
-        <v>1.000505352226661</v>
+        <v>1.063017491483491</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.965245498700411</v>
+        <v>1.047681092825488</v>
       </c>
       <c r="D17">
-        <v>0.9939167798299495</v>
+        <v>1.052813363017271</v>
       </c>
       <c r="E17">
-        <v>0.9738580507075064</v>
+        <v>1.044823507791791</v>
       </c>
       <c r="F17">
-        <v>0.9901934836038417</v>
+        <v>1.060334041436654</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034884957721779</v>
+        <v>1.041212005428691</v>
       </c>
       <c r="J17">
-        <v>0.9941080171383911</v>
+        <v>1.053785263967518</v>
       </c>
       <c r="K17">
-        <v>1.008032317321262</v>
+        <v>1.056121636891837</v>
       </c>
       <c r="L17">
-        <v>0.9883405131018296</v>
+        <v>1.048158883683357</v>
       </c>
       <c r="M17">
-        <v>1.004375669482758</v>
+        <v>1.063617214348591</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9679724086993357</v>
+        <v>1.048102499452583</v>
       </c>
       <c r="D18">
-        <v>0.9960983109222414</v>
+        <v>1.053152382804491</v>
       </c>
       <c r="E18">
-        <v>0.9762194377381748</v>
+        <v>1.045194085449995</v>
       </c>
       <c r="F18">
-        <v>0.992644767970765</v>
+        <v>1.060725474175843</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035886390486481</v>
+        <v>1.041333702966753</v>
       </c>
       <c r="J18">
-        <v>0.9963024771768798</v>
+        <v>1.054126131915769</v>
       </c>
       <c r="K18">
-        <v>1.009984734190935</v>
+        <v>1.056418385848874</v>
       </c>
       <c r="L18">
-        <v>0.9904616808841817</v>
+        <v>1.048486707498536</v>
       </c>
       <c r="M18">
-        <v>1.006591681703577</v>
+        <v>1.063966553335063</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.968893762748555</v>
+        <v>1.048246104875314</v>
       </c>
       <c r="D19">
-        <v>0.9968356024076819</v>
+        <v>1.053267906518503</v>
       </c>
       <c r="E19">
-        <v>0.977017400821738</v>
+        <v>1.045320359879789</v>
       </c>
       <c r="F19">
-        <v>0.9934733052861446</v>
+        <v>1.060858872255759</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036224458376616</v>
+        <v>1.041375132751188</v>
       </c>
       <c r="J19">
-        <v>0.9970438688414899</v>
+        <v>1.054242272456048</v>
       </c>
       <c r="K19">
-        <v>1.010644343890615</v>
+        <v>1.056519486625203</v>
       </c>
       <c r="L19">
-        <v>0.9911782511979064</v>
+        <v>1.048598395111163</v>
       </c>
       <c r="M19">
-        <v>1.007340503013641</v>
+        <v>1.064085589865091</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9647398166711114</v>
+        <v>1.047603538523086</v>
       </c>
       <c r="D20">
-        <v>0.9935123358337549</v>
+        <v>1.05275096797762</v>
       </c>
       <c r="E20">
-        <v>0.9734202065104934</v>
+        <v>1.04475530329252</v>
       </c>
       <c r="F20">
-        <v>0.9897390654185813</v>
+        <v>1.06026200678976</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034699112637876</v>
+        <v>1.041189588734436</v>
       </c>
       <c r="J20">
-        <v>0.9937010456943861</v>
+        <v>1.053722522624628</v>
       </c>
       <c r="K20">
-        <v>1.007670230396995</v>
+        <v>1.056067012667543</v>
       </c>
       <c r="L20">
-        <v>0.9879471054017221</v>
+        <v>1.048098539235148</v>
       </c>
       <c r="M20">
-        <v>1.003964772924496</v>
+        <v>1.063552918425883</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9506001422482087</v>
+        <v>1.045508618071049</v>
       </c>
       <c r="D21">
-        <v>0.9822171328303586</v>
+        <v>1.051065199088407</v>
       </c>
       <c r="E21">
-        <v>0.9611849658658915</v>
+        <v>1.042912412648847</v>
       </c>
       <c r="F21">
-        <v>0.9770523141254318</v>
+        <v>1.058316578425941</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029486881314035</v>
+        <v>1.040581765691919</v>
       </c>
       <c r="J21">
-        <v>0.9823189760947599</v>
+        <v>1.052026681671574</v>
       </c>
       <c r="K21">
-        <v>0.9975434249013611</v>
+        <v>1.05459015823478</v>
       </c>
       <c r="L21">
-        <v>0.9769410023794045</v>
+        <v>1.046467014052367</v>
       </c>
       <c r="M21">
-        <v>0.9924818816054758</v>
+        <v>1.061815596047211</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9411572316002876</v>
+        <v>1.044186835949536</v>
       </c>
       <c r="D22">
-        <v>0.9746896666134769</v>
+        <v>1.050001251478125</v>
       </c>
       <c r="E22">
-        <v>0.9530229937941301</v>
+        <v>1.041749135545549</v>
       </c>
       <c r="F22">
-        <v>0.9686011897588904</v>
+        <v>1.057089506206534</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.025991567409787</v>
+        <v>1.040196036733284</v>
       </c>
       <c r="J22">
-        <v>0.9747164175566755</v>
+        <v>1.050955678042136</v>
       </c>
       <c r="K22">
-        <v>0.9907797720472813</v>
+        <v>1.053657058099633</v>
       </c>
       <c r="L22">
-        <v>0.9695862764231346</v>
+        <v>1.045436171283156</v>
       </c>
       <c r="M22">
-        <v>0.9848214244400495</v>
+        <v>1.060718918962501</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9462202634533069</v>
+        <v>1.04488798358006</v>
       </c>
       <c r="D23">
-        <v>0.9787240315475237</v>
+        <v>1.050565658769393</v>
       </c>
       <c r="E23">
-        <v>0.9573982432506357</v>
+        <v>1.042366251550456</v>
       </c>
       <c r="F23">
-        <v>0.973130273691723</v>
+        <v>1.057740377092088</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027866916254494</v>
+        <v>1.04040085958123</v>
       </c>
       <c r="J23">
-        <v>0.9787927226725384</v>
+        <v>1.051523894990701</v>
       </c>
       <c r="K23">
-        <v>0.9944061922615438</v>
+        <v>1.054152148225783</v>
       </c>
       <c r="L23">
-        <v>0.9735300020787574</v>
+        <v>1.045983124456914</v>
       </c>
       <c r="M23">
-        <v>0.9889278454539328</v>
+        <v>1.061300707076699</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9649684716642618</v>
+        <v>1.047638583504454</v>
       </c>
       <c r="D24">
-        <v>0.993695209874936</v>
+        <v>1.052779162954167</v>
       </c>
       <c r="E24">
-        <v>0.9736181850147765</v>
+        <v>1.044786123492072</v>
       </c>
       <c r="F24">
-        <v>0.989944534478653</v>
+        <v>1.060294557438259</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034783151734487</v>
+        <v>1.041199719078743</v>
       </c>
       <c r="J24">
-        <v>0.9938850675937744</v>
+        <v>1.053750874324706</v>
       </c>
       <c r="K24">
-        <v>1.007833956794115</v>
+        <v>1.056091696522842</v>
       </c>
       <c r="L24">
-        <v>0.9881249952239929</v>
+        <v>1.048125807976682</v>
       </c>
       <c r="M24">
-        <v>1.004150566883584</v>
+        <v>1.063581972435238</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9847182405472911</v>
+        <v>1.050811144777749</v>
       </c>
       <c r="D25">
-        <v>1.009513979420031</v>
+        <v>1.05533080495763</v>
       </c>
       <c r="E25">
-        <v>0.9907303257660696</v>
+        <v>1.047574989343325</v>
       </c>
       <c r="F25">
-        <v>1.00772766820997</v>
+        <v>1.063242198223796</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042005085909365</v>
+        <v>1.042111476146531</v>
       </c>
       <c r="J25">
-        <v>1.009771073358945</v>
+        <v>1.056315060355958</v>
       </c>
       <c r="K25">
-        <v>1.021966376820095</v>
+        <v>1.058323193510335</v>
       </c>
       <c r="L25">
-        <v>1.003474266339061</v>
+        <v>1.050590967252723</v>
       </c>
       <c r="M25">
-        <v>1.020207194924392</v>
+        <v>1.066210910436378</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_233/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_233/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.053326784846613</v>
+        <v>0.9991916969358126</v>
       </c>
       <c r="D2">
-        <v>1.05735288753316</v>
+        <v>1.021132015036408</v>
       </c>
       <c r="E2">
-        <v>1.049784570808107</v>
+        <v>1.003282633302336</v>
       </c>
       <c r="F2">
-        <v>1.065580750290416</v>
+        <v>1.020803809268954</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042826644038349</v>
+        <v>1.047241201549589</v>
       </c>
       <c r="J2">
-        <v>1.05834471400405</v>
+        <v>1.021396611117008</v>
       </c>
       <c r="K2">
-        <v>1.060088090727344</v>
+        <v>1.032304592920733</v>
       </c>
       <c r="L2">
-        <v>1.052540665006014</v>
+        <v>1.014696424489249</v>
       </c>
       <c r="M2">
-        <v>1.068293606303547</v>
+        <v>1.031980726947129</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.055145191482077</v>
+        <v>1.009086897700329</v>
       </c>
       <c r="D3">
-        <v>1.058813802458066</v>
+        <v>1.029084814567774</v>
       </c>
       <c r="E3">
-        <v>1.051380687837004</v>
+        <v>1.011867968988424</v>
       </c>
       <c r="F3">
-        <v>1.067271853948691</v>
+        <v>1.029764362145006</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043339064684927</v>
+        <v>1.05078622371428</v>
       </c>
       <c r="J3">
-        <v>1.059809744085158</v>
+        <v>1.029332873071047</v>
       </c>
       <c r="K3">
-        <v>1.061361181682897</v>
+        <v>1.039358598063641</v>
       </c>
       <c r="L3">
-        <v>1.053947076196142</v>
+        <v>1.022351216004995</v>
       </c>
       <c r="M3">
-        <v>1.069797949821408</v>
+        <v>1.040030056262164</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.056318172525178</v>
+        <v>1.015239830461879</v>
       </c>
       <c r="D4">
-        <v>1.05975583367735</v>
+        <v>1.034033150965177</v>
       </c>
       <c r="E4">
-        <v>1.052409786857123</v>
+        <v>1.017207211266478</v>
       </c>
       <c r="F4">
-        <v>1.068363033590878</v>
+        <v>1.035344417047548</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043667506075709</v>
+        <v>1.052973830861433</v>
       </c>
       <c r="J4">
-        <v>1.060753808169771</v>
+        <v>1.034261573434497</v>
       </c>
       <c r="K4">
-        <v>1.062181170397339</v>
+        <v>1.043737470137683</v>
       </c>
       <c r="L4">
-        <v>1.054852949132864</v>
+        <v>1.027102303185776</v>
       </c>
       <c r="M4">
-        <v>1.070767819387793</v>
+        <v>1.045034189391634</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.056810438709082</v>
+        <v>1.017771100463538</v>
       </c>
       <c r="D5">
-        <v>1.060151092597325</v>
+        <v>1.03606945582408</v>
       </c>
       <c r="E5">
-        <v>1.052841551764209</v>
+        <v>1.019403814648499</v>
       </c>
       <c r="F5">
-        <v>1.06882104461369</v>
+        <v>1.037641836684438</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043804839804519</v>
+        <v>1.053869694104731</v>
       </c>
       <c r="J5">
-        <v>1.061149772308975</v>
+        <v>1.036287641551732</v>
       </c>
       <c r="K5">
-        <v>1.06252500024025</v>
+        <v>1.045537014396346</v>
       </c>
       <c r="L5">
-        <v>1.055232795306993</v>
+        <v>1.029054685865517</v>
       </c>
       <c r="M5">
-        <v>1.071174719554557</v>
+        <v>1.047092472570118</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.056893042766477</v>
+        <v>1.018192980555799</v>
       </c>
       <c r="D6">
-        <v>1.06021741349697</v>
+        <v>1.036408871770727</v>
       </c>
       <c r="E6">
-        <v>1.052913996545844</v>
+        <v>1.019769918395177</v>
       </c>
       <c r="F6">
-        <v>1.068897904863723</v>
+        <v>1.038024844633301</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043827855344991</v>
+        <v>1.054018761437168</v>
       </c>
       <c r="J6">
-        <v>1.061216202897955</v>
+        <v>1.036625226686686</v>
       </c>
       <c r="K6">
-        <v>1.062582678769481</v>
+        <v>1.045836825146369</v>
       </c>
       <c r="L6">
-        <v>1.055296515960157</v>
+        <v>1.029379953911677</v>
       </c>
       <c r="M6">
-        <v>1.071242991462381</v>
+        <v>1.047435495195288</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.05632475354435</v>
+        <v>1.015273865741609</v>
       </c>
       <c r="D7">
-        <v>1.059761118156985</v>
+        <v>1.034060528828704</v>
       </c>
       <c r="E7">
-        <v>1.052415559510553</v>
+        <v>1.017236746465855</v>
       </c>
       <c r="F7">
-        <v>1.068369156367585</v>
+        <v>1.035375300949305</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043669344047017</v>
+        <v>1.052985892955643</v>
       </c>
       <c r="J7">
-        <v>1.060759102657733</v>
+        <v>1.034288822108572</v>
       </c>
       <c r="K7">
-        <v>1.062185768161252</v>
+        <v>1.043761674332913</v>
       </c>
       <c r="L7">
-        <v>1.05485802849697</v>
+        <v>1.027128563529157</v>
       </c>
       <c r="M7">
-        <v>1.070773259660677</v>
+        <v>1.045061866596899</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.053942090866931</v>
+        <v>1.002590399701374</v>
       </c>
       <c r="D8">
-        <v>1.057847297775572</v>
+        <v>1.023862767076472</v>
       </c>
       <c r="E8">
-        <v>1.05032476109504</v>
+        <v>1.006231194332704</v>
       </c>
       <c r="F8">
-        <v>1.066152913502681</v>
+        <v>1.023879619418953</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043000470553091</v>
+        <v>1.048462304674487</v>
       </c>
       <c r="J8">
-        <v>1.058840646259903</v>
+        <v>1.024123725894135</v>
       </c>
       <c r="K8">
-        <v>1.060519129628747</v>
+        <v>1.034728919635745</v>
       </c>
       <c r="L8">
-        <v>1.053016840751954</v>
+        <v>1.017327416536494</v>
       </c>
       <c r="M8">
-        <v>1.068802748432777</v>
+        <v>1.034745556813372</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.049714739621802</v>
+        <v>0.9780957348384538</v>
       </c>
       <c r="D9">
-        <v>1.054449166956319</v>
+        <v>1.004204745222334</v>
       </c>
       <c r="E9">
-        <v>1.0466114657905</v>
+        <v>0.9849898411028347</v>
       </c>
       <c r="F9">
-        <v>1.062223324188587</v>
+        <v>1.00175677325988</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041797590977814</v>
+        <v>1.039592185052464</v>
       </c>
       <c r="J9">
-        <v>1.055429458626093</v>
+        <v>1.004446428426847</v>
       </c>
       <c r="K9">
-        <v>1.057552712841915</v>
+        <v>1.017229969751288</v>
       </c>
       <c r="L9">
-        <v>1.049739811779812</v>
+        <v>0.998331234483014</v>
       </c>
       <c r="M9">
-        <v>1.065302665906675</v>
+        <v>1.014821412201508</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.04687595975614</v>
+        <v>0.9599360393149078</v>
       </c>
       <c r="D10">
-        <v>1.052165562565986</v>
+        <v>0.9896719169687419</v>
       </c>
       <c r="E10">
-        <v>1.044115371162573</v>
+        <v>0.9692617525772238</v>
       </c>
       <c r="F10">
-        <v>1.059586261640353</v>
+        <v>0.9854246548593852</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040978987272023</v>
+        <v>1.032931609160525</v>
       </c>
       <c r="J10">
-        <v>1.053133775418172</v>
+        <v>0.9898346059533223</v>
       </c>
       <c r="K10">
-        <v>1.055554380637495</v>
+        <v>1.004230186073678</v>
       </c>
       <c r="L10">
-        <v>1.047532222864535</v>
+        <v>0.9842090960982507</v>
       </c>
       <c r="M10">
-        <v>1.062949653117611</v>
+        <v>1.000062154578072</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.045641597991866</v>
+        <v>0.9515266549793326</v>
       </c>
       <c r="D11">
-        <v>1.051172225885932</v>
+        <v>0.9829564154016547</v>
       </c>
       <c r="E11">
-        <v>1.043029424309391</v>
+        <v>0.9619862112107241</v>
       </c>
       <c r="F11">
-        <v>1.05844004650348</v>
+        <v>0.9778824544476169</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040620478489498</v>
+        <v>1.029829266004562</v>
       </c>
       <c r="J11">
-        <v>1.05213438857928</v>
+        <v>0.9830648969973645</v>
       </c>
       <c r="K11">
-        <v>1.054683979983303</v>
+        <v>0.9982070689316777</v>
       </c>
       <c r="L11">
-        <v>1.046570662750667</v>
+        <v>0.977662473276444</v>
       </c>
       <c r="M11">
-        <v>1.061925907054349</v>
+        <v>0.9932338866340295</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.045182304129151</v>
+        <v>0.9483088983396373</v>
       </c>
       <c r="D12">
-        <v>1.050802560020183</v>
+        <v>0.9803894374810337</v>
       </c>
       <c r="E12">
-        <v>1.042625265688194</v>
+        <v>0.959203814368195</v>
       </c>
       <c r="F12">
-        <v>1.05801361807605</v>
+        <v>0.9750001121769608</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040486696597367</v>
+        <v>1.028639715329573</v>
       </c>
       <c r="J12">
-        <v>1.051762350543845</v>
+        <v>0.9804743016949629</v>
       </c>
       <c r="K12">
-        <v>1.054359890600326</v>
+        <v>0.9959022422243936</v>
       </c>
       <c r="L12">
-        <v>1.046212627364842</v>
+        <v>0.9751566871647005</v>
       </c>
       <c r="M12">
-        <v>1.061544891313652</v>
+        <v>0.9906224721564699</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.045280860657812</v>
+        <v>0.9490036010532171</v>
       </c>
       <c r="D13">
-        <v>1.050881886394825</v>
+        <v>0.9809435120462462</v>
       </c>
       <c r="E13">
-        <v>1.042711995142481</v>
+        <v>0.9598044503964591</v>
       </c>
       <c r="F13">
-        <v>1.05810511919754</v>
+        <v>0.9756222297412169</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040515421255382</v>
+        <v>1.028896642659943</v>
       </c>
       <c r="J13">
-        <v>1.051842191434824</v>
+        <v>0.9810336087741255</v>
       </c>
       <c r="K13">
-        <v>1.054429444604671</v>
+        <v>0.9963998471935376</v>
       </c>
       <c r="L13">
-        <v>1.046289466806598</v>
+        <v>0.975697709064887</v>
       </c>
       <c r="M13">
-        <v>1.061626654758395</v>
+        <v>0.9911862002007338</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.045603649009503</v>
+        <v>0.9512626739295492</v>
       </c>
       <c r="D14">
-        <v>1.051141683496602</v>
+        <v>0.9827457672391436</v>
       </c>
       <c r="E14">
-        <v>1.042996032657095</v>
+        <v>0.9617579139718515</v>
       </c>
       <c r="F14">
-        <v>1.058404811641829</v>
+        <v>0.9776459148074275</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04060943264242</v>
+        <v>1.029731725174158</v>
       </c>
       <c r="J14">
-        <v>1.052103652662798</v>
+        <v>0.9828523708236626</v>
       </c>
       <c r="K14">
-        <v>1.054657206737894</v>
+        <v>0.998017984487629</v>
       </c>
       <c r="L14">
-        <v>1.0465410852743</v>
+        <v>0.9774569158937196</v>
       </c>
       <c r="M14">
-        <v>1.06189442759868</v>
+        <v>0.9930196195889811</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.045802423270015</v>
+        <v>0.9526416829469621</v>
       </c>
       <c r="D15">
-        <v>1.051301660268453</v>
+        <v>0.9838462804928568</v>
       </c>
       <c r="E15">
-        <v>1.043170932305516</v>
+        <v>0.9629505776758988</v>
       </c>
       <c r="F15">
-        <v>1.058589372265891</v>
+        <v>0.9788817212401503</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040667274336176</v>
+        <v>1.030241169495165</v>
       </c>
       <c r="J15">
-        <v>1.052264638160422</v>
+        <v>0.9839625768370723</v>
       </c>
       <c r="K15">
-        <v>1.054797434153516</v>
+        <v>0.9990057376853833</v>
       </c>
       <c r="L15">
-        <v>1.04669599997792</v>
+        <v>0.9785306953524344</v>
       </c>
       <c r="M15">
-        <v>1.062059311233693</v>
+        <v>0.9941389847774251</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.046957769790819</v>
+        <v>0.9604816620603935</v>
       </c>
       <c r="D16">
-        <v>1.052231390338559</v>
+        <v>0.990107968032201</v>
       </c>
       <c r="E16">
-        <v>1.044187332260473</v>
+        <v>0.9697339950226568</v>
       </c>
       <c r="F16">
-        <v>1.059662238854432</v>
+        <v>0.9859144764863548</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041002694386311</v>
+        <v>1.033132546985643</v>
       </c>
       <c r="J16">
-        <v>1.053199987301171</v>
+        <v>0.9902737949154538</v>
       </c>
       <c r="K16">
-        <v>1.055612037233868</v>
+        <v>1.004620942430456</v>
       </c>
       <c r="L16">
-        <v>1.047595917597793</v>
+        <v>0.9846337352603958</v>
       </c>
       <c r="M16">
-        <v>1.063017491483491</v>
+        <v>1.00050535222666</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.047681092825488</v>
+        <v>0.9652454987004077</v>
       </c>
       <c r="D17">
-        <v>1.052813363017271</v>
+        <v>0.9939167798299468</v>
       </c>
       <c r="E17">
-        <v>1.044823507791791</v>
+        <v>0.9738580507075036</v>
       </c>
       <c r="F17">
-        <v>1.060334041436654</v>
+        <v>0.9901934836038386</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041212005428691</v>
+        <v>1.034884957721778</v>
       </c>
       <c r="J17">
-        <v>1.053785263967518</v>
+        <v>0.9941080171383881</v>
       </c>
       <c r="K17">
-        <v>1.056121636891837</v>
+        <v>1.00803231732126</v>
       </c>
       <c r="L17">
-        <v>1.048158883683357</v>
+        <v>0.9883405131018268</v>
       </c>
       <c r="M17">
-        <v>1.063617214348591</v>
+        <v>1.004375669482755</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.048102499452583</v>
+        <v>0.9679724086993368</v>
       </c>
       <c r="D18">
-        <v>1.053152382804491</v>
+        <v>0.9960983109222431</v>
       </c>
       <c r="E18">
-        <v>1.045194085449995</v>
+        <v>0.9762194377381755</v>
       </c>
       <c r="F18">
-        <v>1.060725474175843</v>
+        <v>0.9926447679707664</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041333702966753</v>
+        <v>1.035886390486482</v>
       </c>
       <c r="J18">
-        <v>1.054126131915769</v>
+        <v>0.9963024771768809</v>
       </c>
       <c r="K18">
-        <v>1.056418385848874</v>
+        <v>1.009984734190936</v>
       </c>
       <c r="L18">
-        <v>1.048486707498536</v>
+        <v>0.9904616808841825</v>
       </c>
       <c r="M18">
-        <v>1.063966553335063</v>
+        <v>1.006591681703578</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.048246104875314</v>
+        <v>0.9688937627485584</v>
       </c>
       <c r="D19">
-        <v>1.053267906518503</v>
+        <v>0.9968356024076853</v>
       </c>
       <c r="E19">
-        <v>1.045320359879789</v>
+        <v>0.9770174008217414</v>
       </c>
       <c r="F19">
-        <v>1.060858872255759</v>
+        <v>0.9934733052861482</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041375132751188</v>
+        <v>1.036224458376617</v>
       </c>
       <c r="J19">
-        <v>1.054242272456048</v>
+        <v>0.9970438688414935</v>
       </c>
       <c r="K19">
-        <v>1.056519486625203</v>
+        <v>1.010644343890618</v>
       </c>
       <c r="L19">
-        <v>1.048598395111163</v>
+        <v>0.9911782511979097</v>
       </c>
       <c r="M19">
-        <v>1.064085589865091</v>
+        <v>1.007340503013645</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.047603538523086</v>
+        <v>0.9647398166711101</v>
       </c>
       <c r="D20">
-        <v>1.05275096797762</v>
+        <v>0.9935123358337534</v>
       </c>
       <c r="E20">
-        <v>1.04475530329252</v>
+        <v>0.973420206510492</v>
       </c>
       <c r="F20">
-        <v>1.06026200678976</v>
+        <v>0.9897390654185801</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041189588734436</v>
+        <v>1.034699112637876</v>
       </c>
       <c r="J20">
-        <v>1.053722522624628</v>
+        <v>0.9937010456943848</v>
       </c>
       <c r="K20">
-        <v>1.056067012667543</v>
+        <v>1.007670230396994</v>
       </c>
       <c r="L20">
-        <v>1.048098539235148</v>
+        <v>0.9879471054017208</v>
       </c>
       <c r="M20">
-        <v>1.063552918425883</v>
+        <v>1.003964772924495</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.045508618071049</v>
+        <v>0.9506001422482104</v>
       </c>
       <c r="D21">
-        <v>1.051065199088407</v>
+        <v>0.9822171328303601</v>
       </c>
       <c r="E21">
-        <v>1.042912412648847</v>
+        <v>0.9611849658658934</v>
       </c>
       <c r="F21">
-        <v>1.058316578425941</v>
+        <v>0.9770523141254336</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040581765691919</v>
+        <v>1.029486881314036</v>
       </c>
       <c r="J21">
-        <v>1.052026681671574</v>
+        <v>0.9823189760947616</v>
       </c>
       <c r="K21">
-        <v>1.05459015823478</v>
+        <v>0.9975434249013626</v>
       </c>
       <c r="L21">
-        <v>1.046467014052367</v>
+        <v>0.9769410023794062</v>
       </c>
       <c r="M21">
-        <v>1.061815596047211</v>
+        <v>0.9924818816054777</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.044186835949536</v>
+        <v>0.9411572316002857</v>
       </c>
       <c r="D22">
-        <v>1.050001251478125</v>
+        <v>0.9746896666134754</v>
       </c>
       <c r="E22">
-        <v>1.041749135545549</v>
+        <v>0.9530229937941284</v>
       </c>
       <c r="F22">
-        <v>1.057089506206534</v>
+        <v>0.9686011897588886</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040196036733284</v>
+        <v>1.025991567409786</v>
       </c>
       <c r="J22">
-        <v>1.050955678042136</v>
+        <v>0.9747164175566737</v>
       </c>
       <c r="K22">
-        <v>1.053657058099633</v>
+        <v>0.9907797720472802</v>
       </c>
       <c r="L22">
-        <v>1.045436171283156</v>
+        <v>0.9695862764231329</v>
       </c>
       <c r="M22">
-        <v>1.060718918962501</v>
+        <v>0.9848214244400477</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.04488798358006</v>
+        <v>0.9462202634533082</v>
       </c>
       <c r="D23">
-        <v>1.050565658769393</v>
+        <v>0.9787240315475247</v>
       </c>
       <c r="E23">
-        <v>1.042366251550456</v>
+        <v>0.9573982432506369</v>
       </c>
       <c r="F23">
-        <v>1.057740377092088</v>
+        <v>0.973130273691724</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04040085958123</v>
+        <v>1.027866916254495</v>
       </c>
       <c r="J23">
-        <v>1.051523894990701</v>
+        <v>0.9787927226725397</v>
       </c>
       <c r="K23">
-        <v>1.054152148225783</v>
+        <v>0.9944061922615449</v>
       </c>
       <c r="L23">
-        <v>1.045983124456914</v>
+        <v>0.9735300020787586</v>
       </c>
       <c r="M23">
-        <v>1.061300707076699</v>
+        <v>0.988927845453934</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.047638583504454</v>
+        <v>0.9649684716642591</v>
       </c>
       <c r="D24">
-        <v>1.052779162954167</v>
+        <v>0.9936952098749339</v>
       </c>
       <c r="E24">
-        <v>1.044786123492072</v>
+        <v>0.9736181850147734</v>
       </c>
       <c r="F24">
-        <v>1.060294557438259</v>
+        <v>0.9899445344786505</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041199719078743</v>
+        <v>1.034783151734485</v>
       </c>
       <c r="J24">
-        <v>1.053750874324706</v>
+        <v>0.9938850675937716</v>
       </c>
       <c r="K24">
-        <v>1.056091696522842</v>
+        <v>1.007833956794113</v>
       </c>
       <c r="L24">
-        <v>1.048125807976682</v>
+        <v>0.98812499522399</v>
       </c>
       <c r="M24">
-        <v>1.063581972435238</v>
+        <v>1.004150566883581</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.050811144777749</v>
+        <v>0.9847182405472895</v>
       </c>
       <c r="D25">
-        <v>1.05533080495763</v>
+        <v>1.00951397942003</v>
       </c>
       <c r="E25">
-        <v>1.047574989343325</v>
+        <v>0.9907303257660683</v>
       </c>
       <c r="F25">
-        <v>1.063242198223796</v>
+        <v>1.007727668209969</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042111476146531</v>
+        <v>1.042005085909365</v>
       </c>
       <c r="J25">
-        <v>1.056315060355958</v>
+        <v>1.009771073358944</v>
       </c>
       <c r="K25">
-        <v>1.058323193510335</v>
+        <v>1.021966376820094</v>
       </c>
       <c r="L25">
-        <v>1.050590967252723</v>
+        <v>1.00347426633906</v>
       </c>
       <c r="M25">
-        <v>1.066210910436378</v>
+        <v>1.020207194924391</v>
       </c>
     </row>
   </sheetData>
